--- a/party/upload/Excel模板/成员信息.xlsx
+++ b/party/upload/Excel模板/成员信息.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\党建\系统\party\upload\Excel模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\党建\系统\新建文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>党支部</t>
   </si>
@@ -85,12 +85,6 @@
   </si>
   <si>
     <t>入党介绍人</t>
-  </si>
-  <si>
-    <t>自传</t>
-  </si>
-  <si>
-    <t>入党志愿</t>
   </si>
   <si>
     <t>确定为预备党员时间</t>
@@ -138,23 +132,63 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4FAA4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -162,14 +196,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,52 +548,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF1"/>
+  <dimension ref="A1:AD1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.75" customWidth="1"/>
-    <col min="2" max="2" width="8.75" customWidth="1"/>
-    <col min="3" max="3" width="6.75" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
-    <col min="5" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="41.75" customWidth="1"/>
-    <col min="8" max="8" width="11.75" customWidth="1"/>
-    <col min="9" max="9" width="28.75" customWidth="1"/>
-    <col min="10" max="10" width="4.75" customWidth="1"/>
-    <col min="11" max="11" width="20.75" customWidth="1"/>
-    <col min="12" max="12" width="18.75" customWidth="1"/>
-    <col min="13" max="13" width="16.75" customWidth="1"/>
-    <col min="14" max="14" width="22.75" customWidth="1"/>
-    <col min="15" max="15" width="13.75" customWidth="1"/>
-    <col min="16" max="16" width="12.75" customWidth="1"/>
-    <col min="17" max="17" width="13.75" customWidth="1"/>
-    <col min="18" max="18" width="22.75" customWidth="1"/>
-    <col min="19" max="19" width="12.75" customWidth="1"/>
-    <col min="20" max="20" width="16.75" customWidth="1"/>
-    <col min="21" max="21" width="18.75" customWidth="1"/>
-    <col min="22" max="22" width="13.75" customWidth="1"/>
-    <col min="23" max="23" width="39.75" customWidth="1"/>
-    <col min="24" max="24" width="28.75" customWidth="1"/>
-    <col min="25" max="25" width="18.75" customWidth="1"/>
-    <col min="26" max="26" width="12.75" customWidth="1"/>
-    <col min="27" max="27" width="10.75" customWidth="1"/>
-    <col min="28" max="28" width="22.75" customWidth="1"/>
-    <col min="29" max="29" width="12.75" customWidth="1"/>
-    <col min="30" max="30" width="18.75" customWidth="1"/>
-    <col min="31" max="31" width="10.75" customWidth="1"/>
-    <col min="32" max="32" width="22.75" customWidth="1"/>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:30" s="6" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -550,68 +622,62 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/party/upload/Excel模板/成员信息.xlsx
+++ b/party/upload/Excel模板/成员信息.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\党建\系统\新建文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\党建\系统\party\upload\Excel模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>党支部</t>
   </si>
@@ -45,9 +45,15 @@
     <t>联系电话</t>
   </si>
   <si>
+    <t>身份证号码</t>
+  </si>
+  <si>
     <t>当前专业（全称）</t>
   </si>
   <si>
+    <t>学年制</t>
+  </si>
+  <si>
     <t>团员</t>
   </si>
   <si>
@@ -57,15 +63,15 @@
     <t>递交入党申请书时间</t>
   </si>
   <si>
+    <t>中大发展党员</t>
+  </si>
+  <si>
     <t>首次组织谈话时间</t>
   </si>
   <si>
     <t>确定为入党积极分子时间</t>
   </si>
   <si>
-    <t>培养联系人</t>
-  </si>
-  <si>
     <t>民主评议时间</t>
   </si>
   <si>
@@ -75,7 +81,7 @@
     <t>确定为重点发展对象时间</t>
   </si>
   <si>
-    <t>政治审查时间</t>
+    <t>政治审查</t>
   </si>
   <si>
     <t>党校培训结业时间</t>
@@ -96,6 +102,10 @@
     <t>入党谈话人</t>
   </si>
   <si>
+    <t>入党
+志愿书</t>
+  </si>
+  <si>
     <t>党委批准为预备党员时间</t>
   </si>
   <si>
@@ -109,6 +119,10 @@
   </si>
   <si>
     <t>党委批准为正式党员时间</t>
+  </si>
+  <si>
+    <t>自传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -215,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -232,7 +246,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -243,6 +257,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,47 +565,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD1"/>
+  <dimension ref="A1:AH1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AI1" sqref="AI1:AR1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="22" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="8" style="10" customWidth="1"/>
+    <col min="7" max="7" width="53.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.75" style="10" customWidth="1"/>
+    <col min="9" max="10" width="29.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="10" customWidth="1"/>
+    <col min="12" max="12" width="5.5" style="10" customWidth="1"/>
+    <col min="13" max="13" width="19.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="15" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.75" style="10" customWidth="1"/>
+    <col min="19" max="19" width="16.375" style="10" customWidth="1"/>
+    <col min="20" max="20" width="22" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.625" style="10" customWidth="1"/>
+    <col min="23" max="23" width="17.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.25" style="10" customWidth="1"/>
+    <col min="25" max="25" width="8.25" style="10" customWidth="1"/>
+    <col min="26" max="26" width="12.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.625" style="10" customWidth="1"/>
+    <col min="28" max="28" width="14.875" style="10" customWidth="1"/>
+    <col min="29" max="29" width="13.125" style="10" customWidth="1"/>
+    <col min="30" max="30" width="22" style="10" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.75" style="10" customWidth="1"/>
+    <col min="32" max="32" width="17.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.25" style="10" customWidth="1"/>
+    <col min="34" max="34" width="22" style="10" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="6" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:34" s="6" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,37 +642,37 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="8" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="5" t="s">
@@ -662,27 +682,39 @@
         <v>23</v>
       </c>
       <c r="Y1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AD1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AE1" s="5" t="s">
         <v>29</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/party/upload/Excel模板/成员信息.xlsx
+++ b/party/upload/Excel模板/成员信息.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>党支部</t>
   </si>
@@ -123,13 +123,33 @@
   <si>
     <t>自传</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转档案馆时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂缓就业时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系转出时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>转出单位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,8 +171,19 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,6 +229,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEB6B8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -260,6 +297,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH1"/>
+  <dimension ref="A1:AM1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AI1" sqref="AI1:AR1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -605,10 +648,15 @@
     <col min="32" max="32" width="17.375" style="10" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="18.25" style="10" customWidth="1"/>
     <col min="34" max="34" width="22" style="10" bestFit="1" customWidth="1"/>
-    <col min="35" max="16384" width="9" style="10"/>
+    <col min="35" max="35" width="15.75" style="10" customWidth="1"/>
+    <col min="36" max="36" width="16.625" style="10" customWidth="1"/>
+    <col min="37" max="37" width="15.375" style="10" customWidth="1"/>
+    <col min="38" max="38" width="15.625" style="10" customWidth="1"/>
+    <col min="39" max="39" width="18.75" style="10" customWidth="1"/>
+    <col min="40" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="6" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:39" s="6" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -710,6 +758,21 @@
       </c>
       <c r="AH1" s="9" t="s">
         <v>32</v>
+      </c>
+      <c r="AI1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="12" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/party/upload/Excel模板/成员信息.xlsx
+++ b/party/upload/Excel模板/成员信息.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\党建\系统\party\upload\Excel模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\党建\系统\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -93,19 +93,22 @@
     <t>入党介绍人</t>
   </si>
   <si>
-    <t>确定为预备党员时间</t>
-  </si>
-  <si>
-    <t>入党谈话时间</t>
-  </si>
-  <si>
-    <t>入党谈话人</t>
+    <t>自传</t>
   </si>
   <si>
     <t>入党
 志愿书</t>
   </si>
   <si>
+    <t>确定为预备党员时间</t>
+  </si>
+  <si>
+    <t>入党谈话时间</t>
+  </si>
+  <si>
+    <t>入党谈话人</t>
+  </si>
+  <si>
     <t>党委批准为预备党员时间</t>
   </si>
   <si>
@@ -121,35 +124,26 @@
     <t>党委批准为正式党员时间</t>
   </si>
   <si>
-    <t>自传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>转档案馆时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>暂缓就业时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>关系转出时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>转出单位</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,11 +168,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -301,7 +290,7 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -611,49 +600,47 @@
   <dimension ref="A1:AM1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="10" customWidth="1"/>
+    <col min="1" max="1" width="42.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="8" style="10" customWidth="1"/>
+    <col min="5" max="5" width="3.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="53.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.75" style="10" customWidth="1"/>
-    <col min="9" max="10" width="29.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.375" style="10" customWidth="1"/>
-    <col min="12" max="12" width="5.5" style="10" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.875" style="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.625" style="10" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.375" style="10" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="15" style="10" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.75" style="10" customWidth="1"/>
-    <col min="19" max="19" width="16.375" style="10" customWidth="1"/>
+    <col min="18" max="18" width="12.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.25" style="10" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="22" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.625" style="10" customWidth="1"/>
-    <col min="23" max="23" width="17.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.25" style="10" customWidth="1"/>
-    <col min="25" max="25" width="8.25" style="10" customWidth="1"/>
-    <col min="26" max="26" width="12.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.625" style="10" customWidth="1"/>
-    <col min="28" max="28" width="14.875" style="10" customWidth="1"/>
-    <col min="29" max="29" width="13.125" style="10" customWidth="1"/>
+    <col min="21" max="21" width="10.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="17.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="12.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.125" style="10" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="22" style="10" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.75" style="10" customWidth="1"/>
+    <col min="31" max="31" width="15" style="10" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="17.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.25" style="10" customWidth="1"/>
+    <col min="33" max="33" width="11.625" style="10" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="22" style="10" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.75" style="10" customWidth="1"/>
-    <col min="36" max="36" width="16.625" style="10" customWidth="1"/>
-    <col min="37" max="37" width="15.375" style="10" customWidth="1"/>
-    <col min="38" max="38" width="15.625" style="10" customWidth="1"/>
-    <col min="39" max="39" width="18.75" style="10" customWidth="1"/>
-    <col min="40" max="16384" width="9" style="10"/>
+    <col min="35" max="37" width="15" style="10" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="33.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="90" style="10" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9" style="10" customWidth="1"/>
+    <col min="41" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="6" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -730,34 +717,34 @@
         <v>23</v>
       </c>
       <c r="Y1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="AI1" s="9" t="s">
         <v>34</v>
@@ -778,6 +765,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/party/upload/Excel模板/成员信息.xlsx
+++ b/party/upload/Excel模板/成员信息.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\党建\系统\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\党建\系统\party\upload\Excel模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>党支部</t>
   </si>
@@ -54,96 +54,178 @@
     <t>学年制</t>
   </si>
   <si>
-    <t>团员</t>
-  </si>
-  <si>
     <t>参加党章学习小组时间</t>
   </si>
   <si>
+    <t>确定为入党积极分子时间</t>
+  </si>
+  <si>
+    <t>民主评议时间</t>
+  </si>
+  <si>
+    <t>推荐/推优时间</t>
+  </si>
+  <si>
+    <t>党校培训结业时间</t>
+  </si>
+  <si>
+    <t>确定入党介绍人时间</t>
+  </si>
+  <si>
+    <t>入党介绍人</t>
+  </si>
+  <si>
+    <t>入党谈话时间</t>
+  </si>
+  <si>
+    <t>入党谈话人</t>
+  </si>
+  <si>
+    <t>入党宣誓时间</t>
+  </si>
+  <si>
+    <t>递交转正申请书时间</t>
+  </si>
+  <si>
+    <t>转档案馆时间</t>
+  </si>
+  <si>
+    <t>关系转出时间</t>
+  </si>
+  <si>
+    <t>转出单位</t>
+  </si>
+  <si>
+    <r>
+      <t>注意1：本表所有时间属性的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="18"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单元格格式</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>统一设定为“日期”，如果设定为其他则所填项必须形如“yyyy-mm-dd”</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意2：基本信息必填，其他资料按发展程度从左到右逐步填写，不允许中间出现空值（外校考入的党员/预备党员可以允许没有“参加党章学习小组时间”或者“自转”）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段3：正式党员</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>递交入党申请书时间</t>
-  </si>
-  <si>
-    <t>中大发展党员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支部大会讨论确定发展对象时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定发展对象时间（党委备案时间）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>党委预审时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段2：预备党员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>首次组织谈话时间</t>
-  </si>
-  <si>
-    <t>确定为入党积极分子时间</t>
-  </si>
-  <si>
-    <t>民主评议时间</t>
-  </si>
-  <si>
-    <t>推荐/推优时间</t>
-  </si>
-  <si>
-    <t>确定为重点发展对象时间</t>
-  </si>
-  <si>
-    <t>政治审查</t>
-  </si>
-  <si>
-    <t>党校培训结业时间</t>
-  </si>
-  <si>
-    <t>确定入党介绍人时间</t>
-  </si>
-  <si>
-    <t>入党介绍人</t>
-  </si>
-  <si>
-    <t>自传</t>
-  </si>
-  <si>
-    <t>入党
-志愿书</t>
-  </si>
-  <si>
-    <t>确定为预备党员时间</t>
-  </si>
-  <si>
-    <t>入党谈话时间</t>
-  </si>
-  <si>
-    <t>入党谈话人</t>
-  </si>
-  <si>
-    <t>党委批准为预备党员时间</t>
-  </si>
-  <si>
-    <t>入党宣誓时间</t>
-  </si>
-  <si>
-    <t>递交转正申请书时间</t>
-  </si>
-  <si>
-    <t>转正时间</t>
-  </si>
-  <si>
-    <t>党委批准为正式党员时间</t>
-  </si>
-  <si>
-    <t>转档案馆时间</t>
-  </si>
-  <si>
-    <t>暂缓就业时间</t>
-  </si>
-  <si>
-    <t>关系转出时间</t>
-  </si>
-  <si>
-    <t>转出单位</t>
-  </si>
-  <si>
-    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否团员（填写“是”“否”）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>籍贯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">政治审查（填“完成”“未完成”）
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自传（填写“完成”“未完成”）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>入党志
+愿书（填写“完成”“未完成”）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定为预备党员时间（支部大会）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>党委审批时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段4：转出</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>党委审批时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请保留党籍时间（出国留学人员填写）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注（包括未及时确定积极分子或发展、转正原因，其他）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>转正时间（支部大会讨论转正时间）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否在中山大学发展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段1：入党申请阶段</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段2：积极分子和发展对象确定和考察阶段</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,8 +253,51 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="18"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,12 +313,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,7 +347,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -251,11 +370,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -266,32 +440,71 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -597,173 +810,332 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM1"/>
+  <dimension ref="A1:AP4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="AP11" sqref="AP11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="42.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="15" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="17.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="12.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22" style="10" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15" style="10" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="22" style="10" bestFit="1" customWidth="1"/>
-    <col min="35" max="37" width="15" style="10" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="33.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="90" style="10" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9" style="10" customWidth="1"/>
-    <col min="41" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="31.5" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="9" customWidth="1"/>
+    <col min="14" max="14" width="19.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" style="9" customWidth="1"/>
+    <col min="16" max="17" width="15" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.25" style="9" customWidth="1"/>
+    <col min="22" max="22" width="22" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.375" style="9" customWidth="1"/>
+    <col min="24" max="24" width="10.25" style="9" customWidth="1"/>
+    <col min="25" max="26" width="17.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10" style="9" customWidth="1"/>
+    <col min="29" max="29" width="11.375" style="9" customWidth="1"/>
+    <col min="30" max="31" width="12.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22" style="9" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15" style="9" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="22" style="9" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="15" style="9" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="33.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="90" style="9" bestFit="1" customWidth="1"/>
+    <col min="43" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="6" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:42" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+    </row>
+    <row r="2" spans="1:42" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
+    </row>
+    <row r="3" spans="1:42" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="19"/>
+      <c r="AN3" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO3" s="19"/>
+      <c r="AP3" s="16"/>
+    </row>
+    <row r="4" spans="1:42" s="5" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="S4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="T4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="U4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="W4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="X4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Y4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="AA4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="AB4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="AF4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="AG4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="AI4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="AJ4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="AM4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AO4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="12" t="s">
-        <v>38</v>
+      <c r="AP4" s="17" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <mergeCells count="8">
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="A2:AK2"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:X3"/>
+    <mergeCell ref="Y3:AH3"/>
+    <mergeCell ref="AI3:AM3"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/party/upload/Excel模板/成员信息.xlsx
+++ b/party/upload/Excel模板/成员信息.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>党支部</t>
   </si>
@@ -185,18 +185,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>党委审批时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>阶段4：转出</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>党委审批时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>申请保留党籍时间（出国留学人员填写）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,6 +211,18 @@
   <si>
     <t>阶段2：积极分子和发展对象确定和考察阶段</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>转出类型</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>党委审批时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>党委审批时间2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -429,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -482,6 +486,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -493,18 +512,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -810,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP4"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="AP11" sqref="AP11"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AK8" sqref="AK8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -852,151 +859,153 @@
     <col min="35" max="35" width="17.375" style="9" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="11.625" style="9" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="22" style="9" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="15" style="9" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="33.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="90" style="9" bestFit="1" customWidth="1"/>
-    <col min="43" max="16384" width="9" style="9"/>
+    <col min="38" max="41" width="15" style="9" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="33.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="90" style="9" bestFit="1" customWidth="1"/>
+    <col min="44" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:43" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23"/>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AO1" s="18"/>
     </row>
-    <row r="2" spans="1:42" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:43" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="25"/>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="25"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
     </row>
-    <row r="3" spans="1:42" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:43" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="18" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="18" t="s">
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25"/>
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="25"/>
+      <c r="AG3" s="25"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="20"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO3" s="19"/>
-      <c r="AP3" s="16"/>
+      <c r="AJ3" s="25"/>
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="25"/>
+      <c r="AM3" s="24"/>
+      <c r="AN3" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO3" s="25"/>
+      <c r="AP3" s="24"/>
+      <c r="AQ3" s="16"/>
     </row>
-    <row r="4" spans="1:42" s="5" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:43" s="5" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1040,7 +1049,7 @@
         <v>11</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>29</v>
@@ -1094,7 +1103,7 @@
         <v>19</v>
       </c>
       <c r="AG4" s="8" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH4" s="4" t="s">
         <v>20</v>
@@ -1103,32 +1112,35 @@
         <v>21</v>
       </c>
       <c r="AJ4" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AK4" s="8" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AL4" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AM4" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AN4" s="10" t="s">
         <v>23</v>
       </c>
       <c r="AO4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AP4" s="17" t="s">
-        <v>45</v>
+      <c r="AQ4" s="17" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:AK1"/>
     <mergeCell ref="A2:AK2"/>
-    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:X3"/>

--- a/party/upload/Excel模板/成员信息.xlsx
+++ b/party/upload/Excel模板/成员信息.xlsx
@@ -20,9 +20,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
-  <si>
-    <t>党支部</t>
-  </si>
   <si>
     <t>学号</t>
   </si>
@@ -223,6 +220,10 @@
   <si>
     <t>党委审批时间2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>党支部名称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -504,10 +505,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -819,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AK8" sqref="AK8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -867,7 +868,7 @@
   <sheetData>
     <row r="1" spans="1:43" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -909,7 +910,7 @@
     </row>
     <row r="2" spans="1:43" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -950,28 +951,28 @@
     </row>
     <row r="3" spans="1:43" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="24"/>
+        <v>26</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="25"/>
       <c r="P3" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q3" s="26"/>
       <c r="R3" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S3" s="26"/>
       <c r="T3" s="26"/>
@@ -980,160 +981,160 @@
       <c r="W3" s="26"/>
       <c r="X3" s="26"/>
       <c r="Y3" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="25"/>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="25"/>
-      <c r="AD3" s="25"/>
-      <c r="AE3" s="25"/>
-      <c r="AF3" s="25"/>
-      <c r="AG3" s="25"/>
-      <c r="AH3" s="24"/>
+        <v>32</v>
+      </c>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="25"/>
       <c r="AI3" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ3" s="25"/>
-      <c r="AK3" s="25"/>
-      <c r="AL3" s="25"/>
-      <c r="AM3" s="24"/>
+        <v>27</v>
+      </c>
+      <c r="AJ3" s="24"/>
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="25"/>
       <c r="AN3" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO3" s="25"/>
-      <c r="AP3" s="24"/>
+        <v>40</v>
+      </c>
+      <c r="AO3" s="24"/>
+      <c r="AP3" s="25"/>
       <c r="AQ3" s="16"/>
     </row>
     <row r="4" spans="1:43" s="5" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="I4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="U4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="V4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="W4" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="T4" s="7" t="s">
+      <c r="X4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="V4" s="15" t="s">
+      <c r="Y4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="W4" s="15" t="s">
+      <c r="Z4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="X4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AC4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AB4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE4" s="4" t="s">
+      <c r="AF4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AF4" s="4" t="s">
+      <c r="AG4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AG4" s="8" t="s">
+      <c r="AI4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AH4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI4" s="8" t="s">
+      <c r="AL4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AJ4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK4" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL4" s="8" t="s">
+      <c r="AM4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AM4" s="8" t="s">
+      <c r="AO4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ4" s="17" t="s">
         <v>42</v>
-      </c>
-      <c r="AN4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="AO4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="AQ4" s="17" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/party/upload/Excel模板/成员信息.xlsx
+++ b/party/upload/Excel模板/成员信息.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\党建\系统\party\upload\Excel模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\38267\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B453AAB-F579-440F-A80F-8E2303E05361}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="21072" yWindow="3996" windowWidth="2388" windowHeight="564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>学号</t>
   </si>
@@ -36,9 +37,6 @@
     <t>民族</t>
   </si>
   <si>
-    <t>家庭住址</t>
-  </si>
-  <si>
     <t>联系电话</t>
   </si>
   <si>
@@ -51,24 +49,15 @@
     <t>学年制</t>
   </si>
   <si>
-    <t>参加党章学习小组时间</t>
-  </si>
-  <si>
     <t>确定为入党积极分子时间</t>
   </si>
   <si>
-    <t>民主评议时间</t>
-  </si>
-  <si>
     <t>推荐/推优时间</t>
   </si>
   <si>
     <t>党校培训结业时间</t>
   </si>
   <si>
-    <t>确定入党介绍人时间</t>
-  </si>
-  <si>
     <t>入党介绍人</t>
   </si>
   <si>
@@ -85,12 +74,6 @@
   </si>
   <si>
     <t>转档案馆时间</t>
-  </si>
-  <si>
-    <t>关系转出时间</t>
-  </si>
-  <si>
-    <t>转出单位</t>
   </si>
   <si>
     <r>
@@ -117,19 +100,19 @@
       </rPr>
       <t>统一设定为“日期”，如果设定为其他则所填项必须形如“yyyy-mm-dd”</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>注意2：基本信息必填，其他资料按发展程度从左到右逐步填写，不允许中间出现空值（外校考入的党员/预备党员可以允许没有“参加党章学习小组时间”或者“自转”）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>基本信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>阶段3：正式党员</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>递交入党申请书时间</t>
@@ -148,16 +131,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阶段2：预备党员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>首次组织谈话时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否团员（填写“是”“否”）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>籍贯</t>
@@ -169,21 +148,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自传（填写“完成”“未完成”）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>入党志
-愿书（填写“完成”“未完成”）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>确定为预备党员时间（支部大会）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>阶段4：转出</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>申请保留党籍时间（出国留学人员填写）</t>
@@ -191,7 +161,7 @@
   </si>
   <si>
     <t>备注（包括未及时确定积极分子或发展、转正原因，其他）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>转正时间（支部大会讨论转正时间）</t>
@@ -203,15 +173,11 @@
   </si>
   <si>
     <t>阶段1：入党申请阶段</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>阶段2：积极分子和发展对象确定和考察阶段</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>转出类型</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>党委审批时间</t>
@@ -223,13 +189,29 @@
   </si>
   <si>
     <t>党支部名称</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>培养联系人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>民主评议时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕业时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段2：预备党员</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -250,12 +232,6 @@
       <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -301,8 +277,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,12 +328,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFEB6B8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -463,16 +440,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -481,37 +452,43 @@
     <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -607,6 +584,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -642,6 +636,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -817,141 +828,141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AO4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5" style="9" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="7.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="9" customWidth="1"/>
-    <col min="14" max="14" width="19.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.88671875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.109375" style="9" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" style="9" customWidth="1"/>
+    <col min="14" max="14" width="19.6640625" style="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13" style="9" customWidth="1"/>
     <col min="16" max="17" width="15" style="9" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="22" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.25" style="9" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.21875" style="9" customWidth="1"/>
     <col min="22" max="22" width="22" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.375" style="9" customWidth="1"/>
-    <col min="24" max="24" width="10.25" style="9" customWidth="1"/>
-    <col min="25" max="26" width="17.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.33203125" style="9" customWidth="1"/>
+    <col min="24" max="24" width="10.21875" style="9" customWidth="1"/>
+    <col min="25" max="26" width="17.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10" style="9" customWidth="1"/>
-    <col min="29" max="29" width="11.375" style="9" customWidth="1"/>
-    <col min="30" max="31" width="12.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.33203125" style="9" customWidth="1"/>
+    <col min="30" max="31" width="12.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.109375" style="9" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="22" style="9" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="15" style="9" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="36" style="9" customWidth="1"/>
     <col min="37" max="37" width="22" style="9" bestFit="1" customWidth="1"/>
     <col min="38" max="41" width="15" style="9" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="33.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="33.88671875" style="9" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="90" style="9" bestFit="1" customWidth="1"/>
     <col min="44" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="20"/>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="20"/>
-      <c r="AO1" s="18"/>
+    <row r="1" spans="1:41" s="10" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AO1" s="15"/>
     </row>
-    <row r="2" spans="1:43" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
+    <row r="2" spans="1:41" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
     </row>
-    <row r="3" spans="1:43" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
-        <v>26</v>
+    <row r="3" spans="1:41" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
@@ -965,50 +976,44 @@
       <c r="K3" s="24"/>
       <c r="L3" s="24"/>
       <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="25"/>
-      <c r="AI3" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ3" s="24"/>
-      <c r="AK3" s="24"/>
-      <c r="AL3" s="24"/>
-      <c r="AM3" s="25"/>
-      <c r="AN3" s="23" t="s">
+      <c r="N3" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="24"/>
+      <c r="P3" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25"/>
+      <c r="AE3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="23"/>
+      <c r="AJ3" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK3" s="16"/>
+    </row>
+    <row r="4" spans="1:41" s="5" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="AO3" s="24"/>
-      <c r="AP3" s="25"/>
-      <c r="AQ3" s="16"/>
-    </row>
-    <row r="4" spans="1:43" s="5" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
@@ -1025,8 +1030,8 @@
       <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>35</v>
+      <c r="G4" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>5</v>
@@ -1041,114 +1046,95 @@
         <v>8</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" s="1" t="s">
+      <c r="Q4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="S4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="R4" s="6" t="s">
+      <c r="T4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="W4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="X4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="Z4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="U4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="V4" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="W4" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="X4" s="7" t="s">
+      <c r="AB4" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="Y4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB4" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="AC4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AD4" s="8" t="s">
+      <c r="AD4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AE4" s="4" t="s">
+      <c r="AH4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AF4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH4" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="AI4" s="8" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="AJ4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AK4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM4" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AO4" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AP4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="AQ4" s="17" t="s">
-        <v>42</v>
+      <c r="AK4" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A1:AK1"/>
     <mergeCell ref="A2:AK2"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:X3"/>
-    <mergeCell ref="Y3:AH3"/>
-    <mergeCell ref="AI3:AM3"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:W3"/>
+    <mergeCell ref="X3:AD3"/>
+    <mergeCell ref="AE3:AI3"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
